--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>filename</t>
   </si>
@@ -124,31 +124,28 @@
     <t>Diad1_Gauss_Sigma</t>
   </si>
   <si>
-    <t>K21-59-FI#1</t>
+    <t>K21-59-FI#1_CRR_DiadFit</t>
   </si>
   <si>
     <t>K21-59-FI#2</t>
   </si>
   <si>
-    <t>K21-59-FI#3</t>
-  </si>
-  <si>
-    <t>K21-61-FI#1-rep1</t>
-  </si>
-  <si>
-    <t>K21-61-FI#1-rep2</t>
-  </si>
-  <si>
-    <t>K21-63-FI#1</t>
-  </si>
-  <si>
-    <t>K21-64-FI#2</t>
-  </si>
-  <si>
-    <t>K21-64-FI#6</t>
-  </si>
-  <si>
-    <t>K21-64-FI#8</t>
+    <t>K21-59-FI#3_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-61-FI#1-rep1_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-61-FI#1-rep2_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-63-FI#1_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-64-FI#2_CRR_DiadFit</t>
+  </si>
+  <si>
+    <t>K21-64-FI#8_CRR_DiadFit</t>
   </si>
   <si>
     <t>Flagged Warnings:</t>
@@ -509,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,61 +630,61 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>103.0572812069299</v>
+        <v>103.0582439390753</v>
       </c>
       <c r="D2">
-        <v>1286.036078104855</v>
+        <v>1286.035116222911</v>
       </c>
       <c r="E2">
-        <v>590.1834775425139</v>
+        <v>592.2656617058601</v>
       </c>
       <c r="F2">
-        <v>1286.036078104855</v>
+        <v>1286.035116222911</v>
       </c>
       <c r="G2">
-        <v>599.3386302370707</v>
+        <v>607.8416133065451</v>
       </c>
       <c r="H2">
-        <v>0.435210506422353</v>
+        <v>0.433740954235018</v>
       </c>
       <c r="I2">
-        <v>4.074876990168888</v>
+        <v>3.692074287964963</v>
       </c>
       <c r="J2">
-        <v>0.2728550161241146</v>
+        <v>0.3098621332226934</v>
       </c>
       <c r="K2">
-        <v>0.870421012844706</v>
+        <v>0.8674819084700359</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2">
-        <v>1389.093359311785</v>
+        <v>1389.093360161986</v>
       </c>
       <c r="N2">
-        <v>968.2059817472475</v>
+        <v>968.2088497472205</v>
       </c>
       <c r="O2">
-        <v>1389.093359311785</v>
+        <v>1389.093360161986</v>
       </c>
       <c r="P2">
-        <v>903.7484696915641</v>
+        <v>904.3471424407591</v>
       </c>
       <c r="Q2">
-        <v>0.395531386355833</v>
+        <v>0.3954978032866402</v>
       </c>
       <c r="S2">
-        <v>3.743435621339301</v>
+        <v>3.743551243207165</v>
       </c>
       <c r="T2">
-        <v>0.3060554552031249</v>
+        <v>0.3078957203892218</v>
       </c>
       <c r="U2">
-        <v>0.7910627727116659</v>
+        <v>0.7909956065732805</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -698,61 +695,61 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.0106508229865</v>
+        <v>103.0106887260733</v>
       </c>
       <c r="D3">
-        <v>1286.157500740033</v>
+        <v>1286.157462692443</v>
       </c>
       <c r="E3">
-        <v>227.2889977200171</v>
+        <v>227.6699200823184</v>
       </c>
       <c r="F3">
-        <v>1286.157500740033</v>
+        <v>1286.157462692443</v>
       </c>
       <c r="G3">
-        <v>200.2668232111835</v>
+        <v>201.5856524349188</v>
       </c>
       <c r="H3">
-        <v>0.4096980686129264</v>
+        <v>0.4094465788269486</v>
       </c>
       <c r="I3">
-        <v>3.281104358547336</v>
+        <v>3.372069087053057</v>
       </c>
       <c r="J3">
-        <v>0.02195236324449212</v>
+        <v>0.04144716748704053</v>
       </c>
       <c r="K3">
-        <v>0.8193961372258528</v>
+        <v>0.8188931576538973</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>1389.168151563019</v>
+        <v>1389.168151418517</v>
       </c>
       <c r="N3">
-        <v>374.1385329139588</v>
+        <v>374.1384632773925</v>
       </c>
       <c r="O3">
-        <v>1389.168151563019</v>
+        <v>1389.168151418517</v>
       </c>
       <c r="P3">
-        <v>344.0598687163302</v>
+        <v>344.0597849544872</v>
       </c>
       <c r="Q3">
-        <v>0.3881540721812797</v>
+        <v>0.3881542579594598</v>
       </c>
       <c r="S3">
-        <v>3.622730030876797</v>
+        <v>3.622729561803206</v>
       </c>
       <c r="T3">
-        <v>0.3189648889681772</v>
+        <v>0.3189634016498229</v>
       </c>
       <c r="U3">
-        <v>0.7763081443625595</v>
+        <v>0.7763085159189197</v>
       </c>
       <c r="V3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:37">
@@ -763,61 +760,61 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>103.0461885476486</v>
+        <v>103.0463328358885</v>
       </c>
       <c r="D4">
-        <v>1286.0742355475</v>
+        <v>1286.074091074354</v>
       </c>
       <c r="E4">
-        <v>570.010450905496</v>
+        <v>570.4088056961807</v>
       </c>
       <c r="F4">
-        <v>1286.0742355475</v>
+        <v>1286.074091074354</v>
       </c>
       <c r="G4">
-        <v>580.8978046860946</v>
+        <v>582.2966213040652</v>
       </c>
       <c r="H4">
-        <v>0.4223973533550666</v>
+        <v>0.4222122028257283</v>
       </c>
       <c r="I4">
-        <v>3.58537743345105</v>
+        <v>3.767917484139669</v>
       </c>
       <c r="J4">
-        <v>0.3638636592435511</v>
+        <v>0.3700715172096811</v>
       </c>
       <c r="K4">
-        <v>0.8447947067101331</v>
+        <v>0.8444244056514566</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>1389.120424095149</v>
+        <v>1389.120423910243</v>
       </c>
       <c r="N4">
-        <v>888.6858422052492</v>
+        <v>888.6857868618297</v>
       </c>
       <c r="O4">
-        <v>1389.120424095149</v>
+        <v>1389.120423910243</v>
       </c>
       <c r="P4">
-        <v>839.6197858070196</v>
+        <v>839.6197158549975</v>
       </c>
       <c r="Q4">
-        <v>0.3996292991918455</v>
+        <v>0.3996293612689302</v>
       </c>
       <c r="S4">
-        <v>3.922464460757526</v>
+        <v>3.922465505516284</v>
       </c>
       <c r="T4">
-        <v>0.3102598184508945</v>
+        <v>0.3102593276707911</v>
       </c>
       <c r="U4">
-        <v>0.7992585983836911</v>
+        <v>0.7992587225378603</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -828,61 +825,61 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>103.3105145412874</v>
+        <v>103.3102715839677</v>
       </c>
       <c r="D5">
-        <v>1285.431591413442</v>
+        <v>1285.431835131392</v>
       </c>
       <c r="E5">
-        <v>65.48382477425349</v>
+        <v>65.96206751084628</v>
       </c>
       <c r="F5">
-        <v>1285.431591413442</v>
+        <v>1285.431835131392</v>
       </c>
       <c r="G5">
-        <v>81.30300237131162</v>
+        <v>81.92720526356536</v>
       </c>
       <c r="H5">
-        <v>0.5747365124294208</v>
+        <v>0.5776929316504018</v>
       </c>
       <c r="I5">
-        <v>3.109908838780314</v>
+        <v>3.145730471303722</v>
       </c>
       <c r="J5">
-        <v>2.927106429462256E-08</v>
+        <v>1.111621350524672E-10</v>
       </c>
       <c r="K5">
-        <v>1.149473024858842</v>
+        <v>1.155385863300804</v>
       </c>
       <c r="L5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>1388.742105954729</v>
+        <v>1388.74210671536</v>
       </c>
       <c r="N5">
-        <v>129.4474830581482</v>
+        <v>129.447908116705</v>
       </c>
       <c r="O5">
-        <v>1388.742105954729</v>
+        <v>1388.74210671536</v>
       </c>
       <c r="P5">
-        <v>167.5651294704018</v>
+        <v>167.5655996578714</v>
       </c>
       <c r="Q5">
-        <v>0.4790615790640605</v>
+        <v>0.4790586387716631</v>
       </c>
       <c r="S5">
-        <v>2.390977695575275</v>
+        <v>2.390976642247799</v>
       </c>
       <c r="T5">
-        <v>0.6659132031373428</v>
+        <v>0.6659269192991838</v>
       </c>
       <c r="U5">
-        <v>0.9581231581281211</v>
+        <v>0.9581172775433262</v>
       </c>
       <c r="V5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -893,61 +890,61 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>103.3045963580512</v>
+        <v>103.3046133559294</v>
       </c>
       <c r="D6">
-        <v>1285.435780646731</v>
+        <v>1285.435763681008</v>
       </c>
       <c r="E6">
-        <v>607.6886751427116</v>
+        <v>607.8097089901272</v>
       </c>
       <c r="F6">
-        <v>1285.435780646731</v>
+        <v>1285.435763681008</v>
       </c>
       <c r="G6">
-        <v>895.5132994037548</v>
+        <v>895.8526333973542</v>
       </c>
       <c r="H6">
-        <v>0.5683161641929195</v>
+        <v>0.5682520214930085</v>
       </c>
       <c r="I6">
-        <v>3.571187032587172</v>
+        <v>3.89174552535069</v>
       </c>
       <c r="J6">
-        <v>0.5553914384698613</v>
+        <v>0.5562889388715584</v>
       </c>
       <c r="K6">
-        <v>1.136632328385839</v>
+        <v>1.136504042986017</v>
       </c>
       <c r="L6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>1388.740377004782</v>
+        <v>1388.740377036938</v>
       </c>
       <c r="N6">
-        <v>1147.74684454341</v>
+        <v>1147.746984390957</v>
       </c>
       <c r="O6">
-        <v>1388.740377004782</v>
+        <v>1388.740377036938</v>
       </c>
       <c r="P6">
-        <v>1426.205692176087</v>
+        <v>1426.205823907998</v>
       </c>
       <c r="Q6">
-        <v>0.481090362721976</v>
+        <v>0.4810902539781914</v>
       </c>
       <c r="S6">
-        <v>4.056061922286193</v>
+        <v>4.056062987517096</v>
       </c>
       <c r="T6">
-        <v>0.5486861371015035</v>
+        <v>0.5486866371465465</v>
       </c>
       <c r="U6">
-        <v>0.9621807254439521</v>
+        <v>0.9621805079563829</v>
       </c>
       <c r="V6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -958,61 +955,61 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>103.3410951093533</v>
+        <v>103.3410505842598</v>
       </c>
       <c r="D7">
-        <v>1285.310713133335</v>
+        <v>1285.310757759881</v>
       </c>
       <c r="E7">
-        <v>125.4461168731515</v>
+        <v>125.5499373025313</v>
       </c>
       <c r="F7">
-        <v>1285.310713133335</v>
+        <v>1285.310757759881</v>
       </c>
       <c r="G7">
-        <v>210.3880270916983</v>
+        <v>210.7357224435302</v>
       </c>
       <c r="H7">
-        <v>0.6316854004922916</v>
+        <v>0.6314607169829891</v>
       </c>
       <c r="I7">
-        <v>1.715820019472321</v>
+        <v>1.840530651270573</v>
       </c>
       <c r="J7">
-        <v>0.6183802835296918</v>
+        <v>0.6219951783469195</v>
       </c>
       <c r="K7">
-        <v>1.263370800984583</v>
+        <v>1.262921433965978</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>1388.651808242689</v>
+        <v>1388.651808344141</v>
       </c>
       <c r="N7">
-        <v>235.7509216994492</v>
+        <v>235.7510865516424</v>
       </c>
       <c r="O7">
-        <v>1388.651808242689</v>
+        <v>1388.651808344141</v>
       </c>
       <c r="P7">
-        <v>317.8537218478863</v>
+        <v>317.8537635808829</v>
       </c>
       <c r="Q7">
-        <v>0.5313388391079399</v>
+        <v>0.5313379959799696</v>
       </c>
       <c r="S7">
-        <v>1.767704588375654</v>
+        <v>1.767705392637869</v>
       </c>
       <c r="T7">
-        <v>0.5055183338719963</v>
+        <v>0.5055209721595666</v>
       </c>
       <c r="U7">
-        <v>1.06267767821588</v>
+        <v>1.062675991959939</v>
       </c>
       <c r="V7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1023,61 +1020,61 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>103.3010348285165</v>
+        <v>103.3010012985155</v>
       </c>
       <c r="D8">
-        <v>1285.407603458091</v>
+        <v>1285.40763681876</v>
       </c>
       <c r="E8">
-        <v>520.8190240718868</v>
+        <v>519.6086468321023</v>
       </c>
       <c r="F8">
-        <v>1285.407603458091</v>
+        <v>1285.40763681876</v>
       </c>
       <c r="G8">
-        <v>814.8055792977934</v>
+        <v>812.1829116361897</v>
       </c>
       <c r="H8">
-        <v>0.5623842414358786</v>
+        <v>0.563375644419132</v>
       </c>
       <c r="I8">
-        <v>3.59824246622666</v>
+        <v>3.854109858933217</v>
       </c>
       <c r="J8">
-        <v>0.7323739604762963</v>
+        <v>0.7243924632894531</v>
       </c>
       <c r="K8">
-        <v>1.124768482871757</v>
+        <v>1.126751288838264</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>1388.708638286608</v>
+        <v>1388.708638117275</v>
       </c>
       <c r="N8">
-        <v>938.3906389501702</v>
+        <v>938.3906529393677</v>
       </c>
       <c r="O8">
-        <v>1388.708638286608</v>
+        <v>1388.708638117275</v>
       </c>
       <c r="P8">
-        <v>1219.109818688892</v>
+        <v>1219.109980894617</v>
       </c>
       <c r="Q8">
-        <v>0.5075644350001324</v>
+        <v>0.5075643996849418</v>
       </c>
       <c r="S8">
-        <v>3.674293975426854</v>
+        <v>3.674297197062103</v>
       </c>
       <c r="T8">
-        <v>0.525033346756026</v>
+        <v>0.5250338275249247</v>
       </c>
       <c r="U8">
-        <v>1.015128870000265</v>
+        <v>1.015128799369884</v>
       </c>
       <c r="V8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:37">
@@ -1088,126 +1085,61 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>103.3028192427209</v>
+        <v>103.2888789760739</v>
       </c>
       <c r="D9">
-        <v>1285.362729075174</v>
+        <v>1285.392843382338</v>
       </c>
       <c r="E9">
-        <v>743.6309738888639</v>
+        <v>158.6481982128894</v>
       </c>
       <c r="F9">
-        <v>1285.362729075174</v>
+        <v>1285.392843382338</v>
       </c>
       <c r="G9">
-        <v>1183.671077428956</v>
+        <v>249.5983765892263</v>
       </c>
       <c r="H9">
-        <v>0.5918739899731766</v>
+        <v>0.6197343560520949</v>
       </c>
       <c r="I9">
-        <v>4.196331558597525</v>
+        <v>1.485895158892154</v>
       </c>
       <c r="J9">
-        <v>0.6469316381549869</v>
+        <v>0.5025210576443586</v>
       </c>
       <c r="K9">
-        <v>1.183747979946353</v>
+        <v>1.23946871210419</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>1388.665548317895</v>
+        <v>1388.681722358412</v>
       </c>
       <c r="N9">
-        <v>1382.784061129401</v>
+        <v>296.130691693525</v>
       </c>
       <c r="O9">
-        <v>1388.665548317895</v>
+        <v>1388.681722358412</v>
       </c>
       <c r="P9">
-        <v>1815.663374848101</v>
+        <v>390.8443694985737</v>
       </c>
       <c r="Q9">
-        <v>0.5147653653181287</v>
+        <v>0.5144726707713018</v>
       </c>
       <c r="S9">
-        <v>4.940240272372393</v>
+        <v>1.934053969287134</v>
       </c>
       <c r="T9">
-        <v>0.516286192981926</v>
+        <v>0.5316083371779272</v>
       </c>
       <c r="U9">
-        <v>1.029530730636257</v>
+        <v>1.028945341542604</v>
       </c>
       <c r="V9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37">
-      <c r="A10" s="1">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
-        <v>103.288872271444</v>
-      </c>
-      <c r="D10">
-        <v>1285.392850016151</v>
-      </c>
-      <c r="E10">
-        <v>158.7003064244943</v>
-      </c>
-      <c r="F10">
-        <v>1285.392850016151</v>
-      </c>
-      <c r="G10">
-        <v>249.411325451379</v>
-      </c>
-      <c r="H10">
-        <v>0.6198703312760535</v>
-      </c>
-      <c r="I10">
-        <v>1.440147260087393</v>
-      </c>
-      <c r="J10">
-        <v>0.5006713619342158</v>
-      </c>
-      <c r="K10">
-        <v>1.239740662552107</v>
-      </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M10">
-        <v>1388.681722287595</v>
-      </c>
-      <c r="N10">
-        <v>296.1306851154736</v>
-      </c>
-      <c r="O10">
-        <v>1388.681722287595</v>
-      </c>
-      <c r="P10">
-        <v>390.844349040671</v>
-      </c>
-      <c r="Q10">
-        <v>0.5144726893529352</v>
-      </c>
-      <c r="S10">
-        <v>1.934054274138891</v>
-      </c>
-      <c r="T10">
-        <v>0.5316081682266141</v>
-      </c>
-      <c r="U10">
-        <v>1.02894537870587</v>
-      </c>
-      <c r="V10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -630,58 +630,58 @@
         <v>36</v>
       </c>
       <c r="C2">
-        <v>103.0582439390753</v>
+        <v>103.0582462663822</v>
       </c>
       <c r="D2">
-        <v>1286.035116222911</v>
+        <v>1286.035113895083</v>
       </c>
       <c r="E2">
-        <v>592.2656617058601</v>
+        <v>592.2737949387184</v>
       </c>
       <c r="F2">
-        <v>1286.035116222911</v>
+        <v>1286.035113895083</v>
       </c>
       <c r="G2">
-        <v>607.8416133065451</v>
+        <v>607.8614501662316</v>
       </c>
       <c r="H2">
-        <v>0.433740954235018</v>
+        <v>0.4337375273315542</v>
       </c>
       <c r="I2">
-        <v>3.692074287964963</v>
+        <v>3.691375804853168</v>
       </c>
       <c r="J2">
-        <v>0.3098621332226934</v>
+        <v>0.3099470578599591</v>
       </c>
       <c r="K2">
-        <v>0.8674819084700359</v>
+        <v>0.8674750546631085</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2">
-        <v>1389.093360161986</v>
+        <v>1389.093360161465</v>
       </c>
       <c r="N2">
-        <v>968.2088497472205</v>
+        <v>968.2088497370656</v>
       </c>
       <c r="O2">
-        <v>1389.093360161986</v>
+        <v>1389.093360161465</v>
       </c>
       <c r="P2">
-        <v>904.3471424407591</v>
+        <v>904.3471417817207</v>
       </c>
       <c r="Q2">
-        <v>0.3954978032866402</v>
+        <v>0.3954978034139988</v>
       </c>
       <c r="S2">
-        <v>3.743551243207165</v>
+        <v>3.743551243633247</v>
       </c>
       <c r="T2">
-        <v>0.3078957203892218</v>
+        <v>0.3078957175034538</v>
       </c>
       <c r="U2">
-        <v>0.7909956065732805</v>
+        <v>0.7909956068279975</v>
       </c>
       <c r="V2" t="s">
         <v>44</v>
@@ -695,58 +695,58 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>103.0106887260733</v>
+        <v>103.0106887739485</v>
       </c>
       <c r="D3">
-        <v>1286.157462692443</v>
+        <v>1286.157462583564</v>
       </c>
       <c r="E3">
-        <v>227.6699200823184</v>
+        <v>227.6699213181409</v>
       </c>
       <c r="F3">
-        <v>1286.157462692443</v>
+        <v>1286.157462583564</v>
       </c>
       <c r="G3">
-        <v>201.5856524349188</v>
+        <v>201.585655651332</v>
       </c>
       <c r="H3">
-        <v>0.4094465788269486</v>
+        <v>0.4094465731597128</v>
       </c>
       <c r="I3">
-        <v>3.372069087053057</v>
+        <v>3.372069054466578</v>
       </c>
       <c r="J3">
-        <v>0.04144716748704053</v>
+        <v>0.0414472417507597</v>
       </c>
       <c r="K3">
-        <v>0.8188931576538973</v>
+        <v>0.8188931463194256</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3">
-        <v>1389.168151418517</v>
+        <v>1389.168151357512</v>
       </c>
       <c r="N3">
-        <v>374.1384632773925</v>
+        <v>374.138446400111</v>
       </c>
       <c r="O3">
-        <v>1389.168151418517</v>
+        <v>1389.168151357512</v>
       </c>
       <c r="P3">
-        <v>344.0597849544872</v>
+        <v>344.0597686324394</v>
       </c>
       <c r="Q3">
-        <v>0.3881542579594598</v>
+        <v>0.3881542915910066</v>
       </c>
       <c r="S3">
-        <v>3.622729561803206</v>
+        <v>3.622729205113153</v>
       </c>
       <c r="T3">
-        <v>0.3189634016498229</v>
+        <v>0.3189631546474725</v>
       </c>
       <c r="U3">
-        <v>0.7763085159189197</v>
+        <v>0.7763085831820131</v>
       </c>
       <c r="V3" t="s">
         <v>44</v>
@@ -760,58 +760,58 @@
         <v>38</v>
       </c>
       <c r="C4">
-        <v>103.0463328358885</v>
+        <v>103.0463331604426</v>
       </c>
       <c r="D4">
-        <v>1286.074091074354</v>
+        <v>1286.07409088711</v>
       </c>
       <c r="E4">
-        <v>570.4088056961807</v>
+        <v>570.4088802070202</v>
       </c>
       <c r="F4">
-        <v>1286.074091074354</v>
+        <v>1286.07409088711</v>
       </c>
       <c r="G4">
-        <v>582.2966213040652</v>
+        <v>582.2966960566378</v>
       </c>
       <c r="H4">
-        <v>0.4222122028257283</v>
+        <v>0.422212103948058</v>
       </c>
       <c r="I4">
-        <v>3.767917484139669</v>
+        <v>3.767917651067944</v>
       </c>
       <c r="J4">
-        <v>0.3700715172096811</v>
+        <v>0.3700721476420182</v>
       </c>
       <c r="K4">
-        <v>0.8444244056514566</v>
+        <v>0.8444242078961161</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4">
-        <v>1389.120423910243</v>
+        <v>1389.120424047552</v>
       </c>
       <c r="N4">
-        <v>888.6857868618297</v>
+        <v>888.685802695913</v>
       </c>
       <c r="O4">
-        <v>1389.120423910243</v>
+        <v>1389.120424047552</v>
       </c>
       <c r="P4">
-        <v>839.6197158549975</v>
+        <v>839.6197329417737</v>
       </c>
       <c r="Q4">
-        <v>0.3996293612689302</v>
+        <v>0.3996293378353412</v>
       </c>
       <c r="S4">
-        <v>3.922465505516284</v>
+        <v>3.922465297191736</v>
       </c>
       <c r="T4">
-        <v>0.3102593276707911</v>
+        <v>0.3102594975762186</v>
       </c>
       <c r="U4">
-        <v>0.7992587225378603</v>
+        <v>0.7992586756706823</v>
       </c>
       <c r="V4" t="s">
         <v>44</v>
@@ -825,58 +825,58 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>103.3102715839677</v>
+        <v>103.3102060063391</v>
       </c>
       <c r="D5">
-        <v>1285.431835131392</v>
+        <v>1285.4319007168</v>
       </c>
       <c r="E5">
-        <v>65.96206751084628</v>
+        <v>66.02212482602798</v>
       </c>
       <c r="F5">
-        <v>1285.431835131392</v>
+        <v>1285.4319007168</v>
       </c>
       <c r="G5">
-        <v>81.92720526356536</v>
+        <v>82.0817529134724</v>
       </c>
       <c r="H5">
-        <v>0.5776929316504018</v>
+        <v>0.5784420090217476</v>
       </c>
       <c r="I5">
-        <v>3.145730471303722</v>
+        <v>3.130955921886279</v>
       </c>
       <c r="J5">
-        <v>1.111621350524672E-10</v>
+        <v>1.160394290100619E-07</v>
       </c>
       <c r="K5">
-        <v>1.155385863300804</v>
+        <v>1.156884018043495</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5">
-        <v>1388.74210671536</v>
+        <v>1388.742106723139</v>
       </c>
       <c r="N5">
-        <v>129.447908116705</v>
+        <v>129.4479100528684</v>
       </c>
       <c r="O5">
-        <v>1388.74210671536</v>
+        <v>1388.742106723139</v>
       </c>
       <c r="P5">
-        <v>167.5655996578714</v>
+        <v>167.5656015298983</v>
       </c>
       <c r="Q5">
-        <v>0.4790586387716631</v>
+        <v>0.4790586259665257</v>
       </c>
       <c r="S5">
-        <v>2.390976642247799</v>
+        <v>2.390976621497358</v>
       </c>
       <c r="T5">
-        <v>0.6659269192991838</v>
+        <v>0.6659269750496657</v>
       </c>
       <c r="U5">
-        <v>0.9581172775433262</v>
+        <v>0.9581172519330513</v>
       </c>
       <c r="V5" t="s">
         <v>44</v>
@@ -890,58 +890,58 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>103.3046133559294</v>
+        <v>103.3046141292737</v>
       </c>
       <c r="D6">
-        <v>1285.435763681008</v>
+        <v>1285.4357628688</v>
       </c>
       <c r="E6">
-        <v>607.8097089901272</v>
+        <v>607.8099966205095</v>
       </c>
       <c r="F6">
-        <v>1285.435763681008</v>
+        <v>1285.4357628688</v>
       </c>
       <c r="G6">
-        <v>895.8526333973542</v>
+        <v>895.852963265536</v>
       </c>
       <c r="H6">
-        <v>0.5682520214930085</v>
+        <v>0.5682515482486674</v>
       </c>
       <c r="I6">
-        <v>3.89174552535069</v>
+        <v>3.891747696659221</v>
       </c>
       <c r="J6">
-        <v>0.5562889388715584</v>
+        <v>0.5562907908348357</v>
       </c>
       <c r="K6">
-        <v>1.136504042986017</v>
+        <v>1.136503096497335</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6">
-        <v>1388.740377036938</v>
+        <v>1388.740376998074</v>
       </c>
       <c r="N6">
-        <v>1147.746984390957</v>
+        <v>1147.746938022313</v>
       </c>
       <c r="O6">
-        <v>1388.740377036938</v>
+        <v>1388.740376998074</v>
       </c>
       <c r="P6">
-        <v>1426.205823907998</v>
+        <v>1426.205783795498</v>
       </c>
       <c r="Q6">
-        <v>0.4810902539781914</v>
+        <v>0.4810902865979522</v>
       </c>
       <c r="S6">
-        <v>4.056062987517096</v>
+        <v>4.05606289695736</v>
       </c>
       <c r="T6">
-        <v>0.5486866371465465</v>
+        <v>0.5486864959122263</v>
       </c>
       <c r="U6">
-        <v>0.9621805079563829</v>
+        <v>0.9621805731959044</v>
       </c>
       <c r="V6" t="s">
         <v>44</v>
@@ -955,58 +955,58 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>103.3410505842598</v>
+        <v>103.3410502964659</v>
       </c>
       <c r="D7">
-        <v>1285.310757759881</v>
+        <v>1285.310758066639</v>
       </c>
       <c r="E7">
-        <v>125.5499373025313</v>
+        <v>125.5499417899416</v>
       </c>
       <c r="F7">
-        <v>1285.310757759881</v>
+        <v>1285.310758066639</v>
       </c>
       <c r="G7">
-        <v>210.7357224435302</v>
+        <v>210.7357317789604</v>
       </c>
       <c r="H7">
-        <v>0.6314607169829891</v>
+        <v>0.6314606662445564</v>
       </c>
       <c r="I7">
-        <v>1.840530651270573</v>
+        <v>1.840530773602764</v>
       </c>
       <c r="J7">
-        <v>0.6219951783469195</v>
+        <v>0.6219953983111839</v>
       </c>
       <c r="K7">
-        <v>1.262921433965978</v>
+        <v>1.262921332489113</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7">
-        <v>1388.651808344141</v>
+        <v>1388.651808363104</v>
       </c>
       <c r="N7">
-        <v>235.7510865516424</v>
+        <v>235.75108839194</v>
       </c>
       <c r="O7">
-        <v>1388.651808344141</v>
+        <v>1388.651808363104</v>
       </c>
       <c r="P7">
-        <v>317.8537635808829</v>
+        <v>317.853774041187</v>
       </c>
       <c r="Q7">
-        <v>0.5313379959799696</v>
+        <v>0.5313379863731259</v>
       </c>
       <c r="S7">
-        <v>1.767705392637869</v>
+        <v>1.767705384929408</v>
       </c>
       <c r="T7">
-        <v>0.5055209721595666</v>
+        <v>0.505521083901327</v>
       </c>
       <c r="U7">
-        <v>1.062675991959939</v>
+        <v>1.062675972746252</v>
       </c>
       <c r="V7" t="s">
         <v>44</v>
@@ -1020,58 +1020,58 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>103.3010012985155</v>
+        <v>103.3010011193155</v>
       </c>
       <c r="D8">
-        <v>1285.40763681876</v>
+        <v>1285.407637048017</v>
       </c>
       <c r="E8">
-        <v>519.6086468321023</v>
+        <v>519.6084806096436</v>
       </c>
       <c r="F8">
-        <v>1285.40763681876</v>
+        <v>1285.407637048017</v>
       </c>
       <c r="G8">
-        <v>812.1829116361897</v>
+        <v>812.182813229279</v>
       </c>
       <c r="H8">
-        <v>0.563375644419132</v>
+        <v>0.5633759888840726</v>
       </c>
       <c r="I8">
-        <v>3.854109858933217</v>
+        <v>3.854109522307193</v>
       </c>
       <c r="J8">
-        <v>0.7243924632894531</v>
+        <v>0.7243914854037556</v>
       </c>
       <c r="K8">
-        <v>1.126751288838264</v>
+        <v>1.126751977768145</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8">
-        <v>1388.708638117275</v>
+        <v>1388.708638167333</v>
       </c>
       <c r="N8">
-        <v>938.3906529393677</v>
+        <v>938.3906823007294</v>
       </c>
       <c r="O8">
-        <v>1388.708638117275</v>
+        <v>1388.708638167333</v>
       </c>
       <c r="P8">
-        <v>1219.109980894617</v>
+        <v>1219.110015942939</v>
       </c>
       <c r="Q8">
-        <v>0.5075643996849418</v>
+        <v>0.5075643715207541</v>
       </c>
       <c r="S8">
-        <v>3.674297197062103</v>
+        <v>3.674296521167622</v>
       </c>
       <c r="T8">
-        <v>0.5250338275249247</v>
+        <v>0.5250339636234796</v>
       </c>
       <c r="U8">
-        <v>1.015128799369884</v>
+        <v>1.015128743041508</v>
       </c>
       <c r="V8" t="s">
         <v>44</v>
@@ -1085,58 +1085,58 @@
         <v>43</v>
       </c>
       <c r="C9">
-        <v>103.2888789760739</v>
+        <v>103.2888796361788</v>
       </c>
       <c r="D9">
-        <v>1285.392843382338</v>
+        <v>1285.392842722296</v>
       </c>
       <c r="E9">
-        <v>158.6481982128894</v>
+        <v>158.6481192449043</v>
       </c>
       <c r="F9">
-        <v>1285.392843382338</v>
+        <v>1285.392842722296</v>
       </c>
       <c r="G9">
-        <v>249.5983765892263</v>
+        <v>249.5983531706096</v>
       </c>
       <c r="H9">
-        <v>0.6197343560520949</v>
+        <v>0.6197349920296515</v>
       </c>
       <c r="I9">
-        <v>1.485895158892154</v>
+        <v>1.485895460054742</v>
       </c>
       <c r="J9">
-        <v>0.5025210576443586</v>
+        <v>0.5025194426469294</v>
       </c>
       <c r="K9">
-        <v>1.23946871210419</v>
+        <v>1.239469984059303</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
       </c>
       <c r="M9">
-        <v>1388.681722358412</v>
+        <v>1388.681722358475</v>
       </c>
       <c r="N9">
-        <v>296.130691693525</v>
+        <v>296.1306896936336</v>
       </c>
       <c r="O9">
-        <v>1388.681722358412</v>
+        <v>1388.681722358475</v>
       </c>
       <c r="P9">
-        <v>390.8443694985737</v>
+        <v>390.8443640991435</v>
       </c>
       <c r="Q9">
-        <v>0.5144726707713018</v>
+        <v>0.5144726769650321</v>
       </c>
       <c r="S9">
-        <v>1.934053969287134</v>
+        <v>1.934053961295279</v>
       </c>
       <c r="T9">
-        <v>0.5316083371779272</v>
+        <v>0.531608288309546</v>
       </c>
       <c r="U9">
-        <v>1.028945341542604</v>
+        <v>1.028945353930064</v>
       </c>
       <c r="V9" t="s">
         <v>44</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>filename</t>
   </si>
@@ -22,9 +22,18 @@
     <t>Splitting</t>
   </si>
   <si>
+    <t>Split_err_abs</t>
+  </si>
+  <si>
+    <t>Split_err_quadrature</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Cent</t>
   </si>
   <si>
+    <t>Diad1_cent_err</t>
+  </si>
+  <si>
     <t>Diad1_Combofit_Height</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
   </si>
   <si>
     <t>Diad2_Combofit_Cent</t>
+  </si>
+  <si>
+    <t>Diad2_cent_err</t>
   </si>
   <si>
     <t>Diad2_Combofit_Height</t>
@@ -506,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:41">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,525 +633,624 @@
       <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:41">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>103.0582462663822</v>
       </c>
-      <c r="D2">
-        <v>1286.035113895083</v>
-      </c>
-      <c r="E2">
-        <v>592.2737949387184</v>
-      </c>
       <c r="F2">
         <v>1286.035113895083</v>
       </c>
       <c r="G2">
+        <v>0.00436</v>
+      </c>
+      <c r="H2">
+        <v>592.2737949387184</v>
+      </c>
+      <c r="I2">
+        <v>1286.035113895083</v>
+      </c>
+      <c r="J2">
         <v>607.8614501662316</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>0.4337375273315542</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>3.691375804853168</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.3099470578599591</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.8674750546631085</v>
       </c>
-      <c r="L2" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2">
+      <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
         <v>1389.093360161465</v>
       </c>
-      <c r="N2">
+      <c r="R2">
         <v>968.2088497370656</v>
       </c>
-      <c r="O2">
+      <c r="S2">
         <v>1389.093360161465</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>904.3471417817207</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>0.3954978034139988</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>3.743551243633247</v>
       </c>
-      <c r="T2">
+      <c r="X2">
         <v>0.3078957175034538</v>
       </c>
-      <c r="U2">
+      <c r="Y2">
         <v>0.7909956068279975</v>
       </c>
-      <c r="V2" t="s">
-        <v>44</v>
+      <c r="Z2" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:41">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>103.0106887739485</v>
       </c>
       <c r="D3">
-        <v>1286.157462583564</v>
+        <v>0.01727</v>
       </c>
       <c r="E3">
-        <v>227.6699213181409</v>
+        <v>0.01223693180499099</v>
       </c>
       <c r="F3">
         <v>1286.157462583564</v>
       </c>
       <c r="G3">
+        <v>0.00919</v>
+      </c>
+      <c r="H3">
+        <v>227.6699213181409</v>
+      </c>
+      <c r="I3">
+        <v>1286.157462583564</v>
+      </c>
+      <c r="J3">
         <v>201.585655651332</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>0.4094465731597128</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>3.372069054466578</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.0414472417507597</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>0.8188931463194256</v>
       </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3">
+      <c r="O3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3">
         <v>1389.168151357512</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
+        <v>0.00808</v>
+      </c>
+      <c r="R3">
         <v>374.138446400111</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>1389.168151357512</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>344.0597686324394</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>0.3881542915910066</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>3.622729205113153</v>
       </c>
-      <c r="T3">
+      <c r="X3">
         <v>0.3189631546474725</v>
       </c>
-      <c r="U3">
+      <c r="Y3">
         <v>0.7763085831820131</v>
       </c>
-      <c r="V3" t="s">
-        <v>44</v>
+      <c r="Z3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:41">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>103.0463331604426</v>
       </c>
       <c r="D4">
-        <v>1286.07409088711</v>
+        <v>0.00848</v>
       </c>
       <c r="E4">
-        <v>570.4088802070202</v>
+        <v>0.006020298995897131</v>
       </c>
       <c r="F4">
         <v>1286.07409088711</v>
       </c>
       <c r="G4">
+        <v>0.00462</v>
+      </c>
+      <c r="H4">
+        <v>570.4088802070202</v>
+      </c>
+      <c r="I4">
+        <v>1286.07409088711</v>
+      </c>
+      <c r="J4">
         <v>582.2966960566378</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>0.422212103948058</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>3.767917651067944</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.3700721476420182</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.8444242078961161</v>
       </c>
-      <c r="L4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4">
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4">
         <v>1389.120424047552</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
+        <v>0.00386</v>
+      </c>
+      <c r="R4">
         <v>888.685802695913</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>1389.120424047552</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>839.6197329417737</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>0.3996293378353412</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>3.922465297191736</v>
       </c>
-      <c r="T4">
+      <c r="X4">
         <v>0.3102594975762186</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
         <v>0.7992586756706823</v>
       </c>
-      <c r="V4" t="s">
-        <v>44</v>
+      <c r="Z4" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:41">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>103.3102060063391</v>
       </c>
       <c r="D5">
-        <v>1285.4319007168</v>
+        <v>0.0422</v>
       </c>
       <c r="E5">
-        <v>66.02212482602798</v>
+        <v>0.03191269339933563</v>
       </c>
       <c r="F5">
         <v>1285.4319007168</v>
       </c>
       <c r="G5">
+        <v>0.0291</v>
+      </c>
+      <c r="H5">
+        <v>66.02212482602798</v>
+      </c>
+      <c r="I5">
+        <v>1285.4319007168</v>
+      </c>
+      <c r="J5">
         <v>82.0817529134724</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>0.5784420090217476</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>3.130955921886279</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>1.160394290100619E-07</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1.156884018043495</v>
       </c>
-      <c r="L5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M5">
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5">
         <v>1388.742106723139</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
+        <v>0.0131</v>
+      </c>
+      <c r="R5">
         <v>129.4479100528684</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>1388.742106723139</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>167.5656015298983</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>0.4790586259665257</v>
       </c>
-      <c r="S5">
+      <c r="W5">
         <v>2.390976621497358</v>
       </c>
-      <c r="T5">
+      <c r="X5">
         <v>0.6659269750496657</v>
       </c>
-      <c r="U5">
+      <c r="Y5">
         <v>0.9581172519330513</v>
       </c>
-      <c r="V5" t="s">
-        <v>44</v>
+      <c r="Z5" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:41">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>103.3046141292737</v>
       </c>
       <c r="D6">
-        <v>1285.4357628688</v>
+        <v>0.00626</v>
       </c>
       <c r="E6">
-        <v>607.8099966205095</v>
+        <v>0.00444292696316291</v>
       </c>
       <c r="F6">
         <v>1285.4357628688</v>
       </c>
       <c r="G6">
+        <v>0.00286</v>
+      </c>
+      <c r="H6">
+        <v>607.8099966205095</v>
+      </c>
+      <c r="I6">
+        <v>1285.4357628688</v>
+      </c>
+      <c r="J6">
         <v>895.852963265536</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>0.5682515482486674</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>3.891747696659221</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>0.5562907908348357</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1.136503096497335</v>
       </c>
-      <c r="L6" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6">
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6">
         <v>1388.740376998074</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
+        <v>0.0034</v>
+      </c>
+      <c r="R6">
         <v>1147.746938022313</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>1388.740376998074</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>1426.205783795498</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>0.4810902865979522</v>
       </c>
-      <c r="S6">
+      <c r="W6">
         <v>4.05606289695736</v>
       </c>
-      <c r="T6">
+      <c r="X6">
         <v>0.5486864959122263</v>
       </c>
-      <c r="U6">
+      <c r="Y6">
         <v>0.9621805731959044</v>
       </c>
-      <c r="V6" t="s">
-        <v>44</v>
+      <c r="Z6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:41">
       <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>103.3410502964659</v>
       </c>
       <c r="D7">
-        <v>1285.310758066639</v>
+        <v>0.01649</v>
       </c>
       <c r="E7">
-        <v>125.5499417899416</v>
+        <v>0.01212650403042856</v>
       </c>
       <c r="F7">
         <v>1285.310758066639</v>
       </c>
       <c r="G7">
+        <v>0.0106</v>
+      </c>
+      <c r="H7">
+        <v>125.5499417899416</v>
+      </c>
+      <c r="I7">
+        <v>1285.310758066639</v>
+      </c>
+      <c r="J7">
         <v>210.7357317789604</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>0.6314606662445564</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>1.840530773602764</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>0.6219953983111839</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>1.262921332489113</v>
       </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7">
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7">
         <v>1388.651808363104</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
+        <v>0.00589</v>
+      </c>
+      <c r="R7">
         <v>235.75108839194</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>1388.651808363104</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>317.853774041187</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>0.5313379863731259</v>
       </c>
-      <c r="S7">
+      <c r="W7">
         <v>1.767705384929408</v>
       </c>
-      <c r="T7">
+      <c r="X7">
         <v>0.505521083901327</v>
       </c>
-      <c r="U7">
+      <c r="Y7">
         <v>1.062675972746252</v>
       </c>
-      <c r="V7" t="s">
-        <v>44</v>
+      <c r="Z7" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:41">
       <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>103.3010011193155</v>
       </c>
       <c r="D8">
-        <v>1285.407637048017</v>
+        <v>0.007980000000000001</v>
       </c>
       <c r="E8">
-        <v>519.6084806096436</v>
+        <v>0.005672424525720902</v>
       </c>
       <c r="F8">
         <v>1285.407637048017</v>
       </c>
       <c r="G8">
+        <v>0.0044</v>
+      </c>
+      <c r="H8">
+        <v>519.6084806096436</v>
+      </c>
+      <c r="I8">
+        <v>1285.407637048017</v>
+      </c>
+      <c r="J8">
         <v>812.182813229279</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>0.5633759888840726</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>3.854109522307193</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>0.7243914854037556</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>1.126751977768145</v>
       </c>
-      <c r="L8" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8">
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8">
         <v>1388.708638167333</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
+        <v>0.00358</v>
+      </c>
+      <c r="R8">
         <v>938.3906823007294</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>1388.708638167333</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>1219.110015942939</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>0.5075643715207541</v>
       </c>
-      <c r="S8">
+      <c r="W8">
         <v>3.674296521167622</v>
       </c>
-      <c r="T8">
+      <c r="X8">
         <v>0.5250339636234796</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>1.015128743041508</v>
       </c>
-      <c r="V8" t="s">
-        <v>44</v>
+      <c r="Z8" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:41">
       <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>103.2888796361788</v>
       </c>
       <c r="D9">
-        <v>1285.392842722296</v>
+        <v>0.01323</v>
       </c>
       <c r="E9">
-        <v>158.6481192449043</v>
+        <v>0.009581696092028802</v>
       </c>
       <c r="F9">
         <v>1285.392842722296</v>
       </c>
       <c r="G9">
+        <v>0.00808</v>
+      </c>
+      <c r="H9">
+        <v>158.6481192449043</v>
+      </c>
+      <c r="I9">
+        <v>1285.392842722296</v>
+      </c>
+      <c r="J9">
         <v>249.5983531706096</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>0.6197349920296515</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>1.485895460054742</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>0.5025194426469294</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>1.239469984059303</v>
       </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9">
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9">
         <v>1388.681722358475</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
+        <v>0.00515</v>
+      </c>
+      <c r="R9">
         <v>296.1306896936336</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>1388.681722358475</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>390.8443640991435</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>0.5144726769650321</v>
       </c>
-      <c r="S9">
+      <c r="W9">
         <v>1.934053961295279</v>
       </c>
-      <c r="T9">
+      <c r="X9">
         <v>0.531608288309546</v>
       </c>
-      <c r="U9">
+      <c r="Y9">
         <v>1.028945353930064</v>
       </c>
-      <c r="V9" t="s">
-        <v>44</v>
+      <c r="Z9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,41 +633,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>K21-59-FI#1_CRR_DiadFit</t>
+          <t>K23_10_FIA_50X</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.0579295682285</v>
+        <v>103.3212107518029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004029351917342367</v>
+        <v>0.003303994062794734</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.035371721073</v>
+        <v>1285.53024208956</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003584014940065795</v>
+        <v>0.003003164113538504</v>
       </c>
       <c r="F2" t="n">
-        <v>591.7924156615016</v>
+        <v>1362.541566130723</v>
       </c>
       <c r="G2" t="n">
-        <v>1286.035421723573</v>
+        <v>1285.530292092061</v>
       </c>
       <c r="H2" t="n">
-        <v>605.4473551000085</v>
+        <v>2153.795452685364</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4342639979404428</v>
+        <v>0.5860616358551511</v>
       </c>
       <c r="J2" t="n">
-        <v>2.947177011049072</v>
+        <v>5.329909838446272</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2988646425535476</v>
+        <v>0.6538623022564829</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8685279958808856</v>
+        <v>1.172123271710302</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -675,34 +675,34 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1389.093401294302</v>
+        <v>1388.851552846364</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001841334783024475</v>
+        <v>0.00137745492635416</v>
       </c>
       <c r="P2" t="n">
-        <v>968.2270610275216</v>
+        <v>2432.162992657845</v>
       </c>
       <c r="Q2" t="n">
-        <v>1389.093351291802</v>
+        <v>1388.851502843863</v>
       </c>
       <c r="R2" t="n">
-        <v>909.0395457089462</v>
+        <v>3187.505354187109</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3952963977884178</v>
+        <v>0.508942199412004</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.489891339405198</v>
+        <v>5.184157724772273</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3215946673176383</v>
+        <v>0.5375805101395053</v>
       </c>
       <c r="W2" t="n">
-        <v>0.7905927955768356</v>
+        <v>1.017884398824008</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -710,22 +710,22 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>1265.649924547416</v>
+        <v>1265.385375160708</v>
       </c>
       <c r="Z2" t="n">
-        <v>45.88882174020806</v>
+        <v>232.2824109271143</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.4814002257821874</v>
+        <v>0.8014427993589559</v>
       </c>
       <c r="AB2" t="n">
-        <v>1410.393613177798</v>
+        <v>1410.162753344647</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.2159310701706</v>
+        <v>310.0657016233828</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4388470129045571</v>
+        <v>0.6605753748308262</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
@@ -740,41 +740,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>K21-59-FI#2</t>
+          <t>K23_1_FIA_50X</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.0113118956633</v>
+        <v>103.3567422454043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01166630877554634</v>
+        <v>0.002075493396151495</v>
       </c>
       <c r="D3" t="n">
-        <v>1286.157504389216</v>
+        <v>1285.483705084368</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009924298093242252</v>
+        <v>0.001819055458092816</v>
       </c>
       <c r="F3" t="n">
-        <v>227.6552870758402</v>
+        <v>1291.09838345763</v>
       </c>
       <c r="G3" t="n">
-        <v>1286.157504389216</v>
+        <v>1285.483755086868</v>
       </c>
       <c r="H3" t="n">
-        <v>198.5862292822293</v>
+        <v>2046.897654584217</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4097224676478045</v>
+        <v>0.5912944668340028</v>
       </c>
       <c r="J3" t="n">
-        <v>3.210508374646547</v>
+        <v>3.329589685524318</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001385691698757574</v>
+        <v>0.639286275563802</v>
       </c>
       <c r="L3" t="n">
-        <v>0.819444935295609</v>
+        <v>1.182588933668006</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -782,34 +782,34 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1389.168866287379</v>
+        <v>1388.840547334773</v>
       </c>
       <c r="O3" t="n">
-        <v>0.006132786300113336</v>
+        <v>0.0009993548308039561</v>
       </c>
       <c r="P3" t="n">
-        <v>374.5293519160807</v>
+        <v>2241.271207636898</v>
       </c>
       <c r="Q3" t="n">
-        <v>1389.168816284879</v>
+        <v>1388.840497332273</v>
       </c>
       <c r="R3" t="n">
-        <v>348.0071968142857</v>
+        <v>2983.583675644416</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3872839848488908</v>
+        <v>0.510538886123663</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.958294452577771</v>
+        <v>3.720878437852203</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3495639510872146</v>
+        <v>0.5695023607403401</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7745679696977816</v>
+        <v>1.021077772247326</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>1265.839423417539</v>
+        <v>1265.306981279445</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.80843397166331</v>
+        <v>214.7415399655829</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.4905611477551136</v>
+        <v>0.8052511989659479</v>
       </c>
       <c r="AB3" t="n">
-        <v>1410.507458697756</v>
+        <v>1410.206096198883</v>
       </c>
       <c r="AC3" t="n">
-        <v>57.02752122771574</v>
+        <v>331.8761898660962</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3018870820520926</v>
+        <v>0.6694147115547793</v>
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
@@ -847,41 +847,41 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K21-59-FI#3</t>
+          <t>K23_1_FIA_50X_r2_longeraq</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.0462265482622</v>
+        <v>103.3478356356432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003908484628412697</v>
+        <v>0.001650225658877853</v>
       </c>
       <c r="D4" t="n">
-        <v>1286.074214708248</v>
+        <v>1285.494697363545</v>
       </c>
       <c r="E4" t="n">
-        <v>0.003398408736191442</v>
+        <v>0.00141746179363308</v>
       </c>
       <c r="F4" t="n">
-        <v>570.2331498726527</v>
+        <v>1852.376086756238</v>
       </c>
       <c r="G4" t="n">
-        <v>1286.074264710748</v>
+        <v>1285.494747366045</v>
       </c>
       <c r="H4" t="n">
-        <v>580.8992991692904</v>
+        <v>2949.331251619172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4224871025358185</v>
+        <v>0.5935437284729497</v>
       </c>
       <c r="J4" t="n">
-        <v>2.881304977169614</v>
+        <v>3.896763439144414</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3631939775676384</v>
+        <v>0.64049374294935</v>
       </c>
       <c r="L4" t="n">
-        <v>0.844974205071637</v>
+        <v>1.187087456945899</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -889,34 +889,34 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1389.120541261511</v>
+        <v>1388.842633004188</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001930562133762088</v>
+        <v>0.0008450128926882341</v>
       </c>
       <c r="P4" t="n">
-        <v>888.7282138382858</v>
+        <v>3279.066566789347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1389.120491259011</v>
+        <v>1388.842583001688</v>
       </c>
       <c r="R4" t="n">
-        <v>842.595099026714</v>
+        <v>4389.585345076355</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3995215928509318</v>
+        <v>0.5133096985004009</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2.633873024027836</v>
+        <v>4.947484725796418</v>
       </c>
       <c r="V4" t="n">
-        <v>0.319209436977294</v>
+        <v>0.5699517474186917</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7990431857018636</v>
+        <v>1.026619397000802</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -924,22 +924,22 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1265.716478308729</v>
+        <v>1265.247393899789</v>
       </c>
       <c r="Z4" t="n">
-        <v>50.35679291762185</v>
+        <v>327.2163797560422</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4682802609794283</v>
+        <v>0.8353652900811237</v>
       </c>
       <c r="AB4" t="n">
-        <v>1410.466684652591</v>
+        <v>1410.207012238237</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.4732863938854</v>
+        <v>484.9381776552747</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.4355925539313038</v>
+        <v>0.7133309462924068</v>
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
@@ -954,41 +954,41 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K21-61-FI#1-rep1_CRR_DiadFit</t>
+          <t>K23_2_FIA_50X</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.3122589374796</v>
+        <v>103.0028501958107</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03205953986881373</v>
+        <v>0.03245870122812999</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.431180048346</v>
+        <v>1286.359590106879</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02940216967637961</v>
+        <v>0.02948314560682222</v>
       </c>
       <c r="F5" t="n">
-        <v>66.22662825605174</v>
+        <v>46.32165882339616</v>
       </c>
       <c r="G5" t="n">
-        <v>1285.431180048346</v>
+        <v>1286.359590106879</v>
       </c>
       <c r="H5" t="n">
-        <v>80.42695144248505</v>
+        <v>45.98110698062013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5704357291745088</v>
+        <v>0.4665754090934283</v>
       </c>
       <c r="J5" t="n">
-        <v>3.334593589811837</v>
+        <v>1.842056503304278</v>
       </c>
       <c r="K5" t="n">
-        <v>2.477903542352777e-07</v>
+        <v>2.381594388367603e-08</v>
       </c>
       <c r="L5" t="n">
-        <v>1.140871458349018</v>
+        <v>0.9331508181868566</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -996,58 +996,46 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1388.743488988326</v>
+        <v>1389.362440302689</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01277992624866986</v>
+        <v>0.01357613385850062</v>
       </c>
       <c r="P5" t="n">
-        <v>130.2860612048828</v>
+        <v>77.16903389470507</v>
       </c>
       <c r="Q5" t="n">
-        <v>1388.743438985826</v>
+        <v>1389.362440302689</v>
       </c>
       <c r="R5" t="n">
-        <v>171.0766634471257</v>
+        <v>66.42407243048309</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4751261422645769</v>
+        <v>0.3732665897271524</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.267657340729042</v>
+        <v>1.835845803369293</v>
       </c>
       <c r="V5" t="n">
-        <v>0.712623594188684</v>
+        <v>0.2441246898390388</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9502522845291539</v>
+        <v>0.7465331794543049</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="Y5" t="n">
-        <v>1264.489001137446</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1.028704560987151</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.1933522295093318</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1410.139260471004</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>19.90958809494334</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.4795059322402556</v>
-      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
@@ -1061,41 +1049,41 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K21-63-FI#1</t>
+          <t>K23_2_FIB_50X</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.3411994468825</v>
+        <v>103.1543033150542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01048687220340575</v>
+        <v>0.003341076232148519</v>
       </c>
       <c r="D6" t="n">
-        <v>1285.310965650641</v>
+        <v>1285.991130305773</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009343015604033219</v>
+        <v>0.002902525852834291</v>
       </c>
       <c r="F6" t="n">
-        <v>125.7603126955526</v>
+        <v>628.3651553848152</v>
       </c>
       <c r="G6" t="n">
-        <v>1285.311015653141</v>
+        <v>1285.991180308273</v>
       </c>
       <c r="H6" t="n">
-        <v>212.868302396603</v>
+        <v>763.8179248555101</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6303932032679243</v>
+        <v>0.4842074877430222</v>
       </c>
       <c r="J6" t="n">
-        <v>1.596077646564118</v>
+        <v>2.727443129484842</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6427045774811539</v>
+        <v>0.471541894341323</v>
       </c>
       <c r="L6" t="n">
-        <v>1.260786406535849</v>
+        <v>0.9684149754860445</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1103,34 +1091,34 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1388.652265102524</v>
+        <v>1389.145533625827</v>
       </c>
       <c r="O6" t="n">
-        <v>0.00476261987075978</v>
+        <v>0.001654730812747596</v>
       </c>
       <c r="P6" t="n">
-        <v>235.9889523578466</v>
+        <v>1028.465493993757</v>
       </c>
       <c r="Q6" t="n">
-        <v>1388.652215100024</v>
+        <v>1389.145483623327</v>
       </c>
       <c r="R6" t="n">
-        <v>322.1908229443238</v>
+        <v>1151.604434182002</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5311097955513133</v>
+        <v>0.4569390352543493</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.419766952779655</v>
+        <v>2.143436737412361</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5333176947877236</v>
+        <v>0.4071917362999011</v>
       </c>
       <c r="W6" t="n">
-        <v>1.062219591102627</v>
+        <v>0.9138780705086986</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1138,22 +1126,22 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1265.214080098202</v>
+        <v>1265.699254146812</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.99119859988394</v>
+        <v>71.88537016669684</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.4753585713272235</v>
+        <v>0.503122509548486</v>
       </c>
       <c r="AB6" t="n">
-        <v>1409.833158713531</v>
+        <v>1410.470004608635</v>
       </c>
       <c r="AC6" t="n">
-        <v>45.51918889080574</v>
+        <v>121.6670270842793</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7931810002735559</v>
+        <v>0.4698577041731558</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
@@ -1168,41 +1156,41 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K21-64-FI#8</t>
+          <t>K23_2_FIC_50X_CRR_DiadFit</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.2892241183335</v>
+        <v>103.1731074704721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008108460433338136</v>
+        <v>0.004494793790383913</v>
       </c>
       <c r="D7" t="n">
-        <v>1285.392761229321</v>
+        <v>1285.956015368444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007155935132431818</v>
+        <v>0.003848198785732753</v>
       </c>
       <c r="F7" t="n">
-        <v>158.7535404927236</v>
+        <v>411.936931133406</v>
       </c>
       <c r="G7" t="n">
-        <v>1285.392811231821</v>
+        <v>1285.956065370944</v>
       </c>
       <c r="H7" t="n">
-        <v>250.5833772475839</v>
+        <v>525.3794008340052</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6193280780807264</v>
+        <v>0.5041899261513314</v>
       </c>
       <c r="J7" t="n">
-        <v>1.265330091581865</v>
+        <v>2.308574010850984</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5109579402569971</v>
+        <v>0.4914170227592288</v>
       </c>
       <c r="L7" t="n">
-        <v>1.238656156161453</v>
+        <v>1.008379852302663</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1210,34 +1198,34 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1388.682085352655</v>
+        <v>1389.129222843916</v>
       </c>
       <c r="O7" t="n">
-        <v>0.003813098868300963</v>
+        <v>0.002322614329491392</v>
       </c>
       <c r="P7" t="n">
-        <v>296.3996732830071</v>
+        <v>679.3389625108293</v>
       </c>
       <c r="Q7" t="n">
-        <v>1388.682035350155</v>
+        <v>1389.129172841416</v>
       </c>
       <c r="R7" t="n">
-        <v>394.1666634058848</v>
+        <v>775.5403486309115</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5141335556668143</v>
+        <v>0.464088417784842</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.551606406951558</v>
+        <v>2.053523405555884</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5490806071736379</v>
+        <v>0.4174834440314543</v>
       </c>
       <c r="W7" t="n">
-        <v>1.028267111333629</v>
+        <v>0.928176835569684</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1245,22 +1233,22 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>1265.263020715088</v>
+        <v>1265.644705548277</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.78315294483595</v>
+        <v>44.82773511003516</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.5715841317587235</v>
+        <v>0.6636061039500496</v>
       </c>
       <c r="AB7" t="n">
-        <v>1410.053571365214</v>
+        <v>1410.493790332624</v>
       </c>
       <c r="AC7" t="n">
-        <v>45.70549940307447</v>
+        <v>82.52841136584723</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6647809337246349</v>
+        <v>0.4389090849688721</v>
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
@@ -1272,6 +1260,1076 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>K23_4_FIA_50X_CRR_DiadFit</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>103.0883244022318</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003093452484139945</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1286.164366710376</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>234.8698816294272</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1286.164416712876</v>
+      </c>
+      <c r="H8" t="n">
+        <v>267.1353623113072</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.4712035854971648</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.95960310356591</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3660855504263292</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.9424071709943296</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>1389.252791117608</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.003093452484139945</v>
+      </c>
+      <c r="P8" t="n">
+        <v>404.4095866325339</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1389.252741115108</v>
+      </c>
+      <c r="R8" t="n">
+        <v>418.6720852530258</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.4291106044942261</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.667262675286833</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.3648308712509605</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.8582212089884522</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y8" t="n">
+        <v>1265.813479493506</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>14.73607568459997</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.5223047406092561</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1410.54446649296</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>49.09749451413484</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.3590946173794877</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>K23_4_FIB_50X</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>103.3171062353756</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00540448998230455</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1285.613540001616</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.004853556639848951</v>
+      </c>
+      <c r="F9" t="n">
+        <v>323.7634730009353</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1285.613590004116</v>
+      </c>
+      <c r="H9" t="n">
+        <v>491.8218404109873</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5834027308144338</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.837419702626779</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.5659442405693759</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.166805461628868</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>1388.930746241991</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.002377288352852551</v>
+      </c>
+      <c r="P9" t="n">
+        <v>558.8991621415543</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1388.930696239491</v>
+      </c>
+      <c r="R9" t="n">
+        <v>732.1902961808121</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.5131325229857134</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.616410319426037</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.5154900459676777</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.026265045971427</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y9" t="n">
+        <v>1265.322379856578</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>51.14490049915086</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.7681228916127877</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1410.345572927247</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>79.59314590662626</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.6896928559090739</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>K23_6_FIA_50X</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>103.3302683241598</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001442092341355852</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1285.56895700574</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.001171681185334221</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1942.734595342808</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1285.569007008241</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3023.339563543307</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.5934561476949454</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.182407650229055</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.583976907260344</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.186912295389891</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>1388.8993253349</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0008407101289570613</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3418.734804531852</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1388.8992753324</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4596.245455665178</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.5139760154012258</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.532693888720531</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.5775194629153828</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.027952030802452</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y10" t="n">
+        <v>1265.322362572897</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>334.9164798916603</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.8448274173653528</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1410.259809810381</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>509.6529415666133</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.7278332576960296</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>K23_7_FIA_50X</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>103.2957657988338</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.001839161773169925</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1285.608729802017</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.001593419164450699</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1678.909126848991</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1285.608779804517</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2696.273675202637</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.6018594317385892</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.918012401764628</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.6274169561876026</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.203718863477178</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>1388.904595605851</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.000918439651937339</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2949.609636155003</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1388.904545603351</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4002.853183002585</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.5217027464355496</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.219029528784573</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.5634411080114881</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.043405492871099</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y11" t="n">
+        <v>1265.337623053284</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>309.5185708263588</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.7887050317500641</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1410.237160271136</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>433.3313794548526</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.7060350694417594</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>K23_7_FIB_50X</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>103.2900603752596</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003020019411163922</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1285.637988917088</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.002678892535793019</v>
+      </c>
+      <c r="F12" t="n">
+        <v>620.4285816231975</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1285.638038919588</v>
+      </c>
+      <c r="H12" t="n">
+        <v>962.6648494149666</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5920668337867092</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.44159609227817</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.58239145934378</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.184133667573418</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>1388.928149297348</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.001394292661344573</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1087.308771289283</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1388.928099294848</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1457.922821606448</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.5171830542388403</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.355070887615331</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.5549964236129992</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.034366108477681</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y12" t="n">
+        <v>1265.414506610958</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>113.0109120228628</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.7797888589581795</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1410.261876951716</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>172.2313080469455</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.6909514848203775</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>K23_7_FIC_50X_CRR_DiadFit</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>103.2834611467515</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003507586940147758</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1285.637297956407</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003098791498945663</v>
+      </c>
+      <c r="F13" t="n">
+        <v>469.1987631537802</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1285.637347958907</v>
+      </c>
+      <c r="H13" t="n">
+        <v>726.0338392914415</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.5991147943370086</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.846145611920143</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.545290726400794</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.198229588674017</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>1388.920859108159</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.001643367697369399</v>
+      </c>
+      <c r="P13" t="n">
+        <v>818.9545901798219</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1388.920809105658</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1108.006134791887</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.5153045087952657</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.171225167839016</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.5869463689232772</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.030609017590531</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y13" t="n">
+        <v>1265.351524980279</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>67.74741925147424</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.6173847760756411</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1410.263575832891</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>125.973935731994</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.5969430785528872</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>K23_9_FIA_50X_CRR_DiadFit</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>103.2091649658012</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.007184000179917393</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1285.904020292297</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.006217730905141008</v>
+      </c>
+      <c r="F14" t="n">
+        <v>328.3841903017717</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1285.904020292297</v>
+      </c>
+      <c r="H14" t="n">
+        <v>436.535733916361</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5482737566283247</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.70450080091354</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3783101727368429</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.096547513256649</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>1389.113235260598</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.00359856651686578</v>
+      </c>
+      <c r="P14" t="n">
+        <v>559.2131220962056</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1389.113185258098</v>
+      </c>
+      <c r="R14" t="n">
+        <v>675.727076857263</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.4886697604492723</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.574477397605509</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.4315140586837269</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.9773395208985446</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y14" t="n">
+        <v>1265.683901337615</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>48.06766255147441</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.6917640246153555</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1410.506254121333</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>111.6444451624955</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.4633552717732268</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>K23_101_FID_50X</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>103.2532250843449</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.008346917364622836</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1285.819253203019</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.007132978381390435</v>
+      </c>
+      <c r="F15" t="n">
+        <v>660.3008059095757</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1285.819303205519</v>
+      </c>
+      <c r="H15" t="n">
+        <v>903.4373376775034</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5726754997941808</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.205261428311556</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.3380142384674037</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.145350999588362</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1389.072578292364</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.004334933552254167</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1087.439266673288</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1389.072528289864</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1340.560276442102</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.4998632374039941</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.271597017955957</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.4243841824304855</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9997264748079882</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y15" t="n">
+        <v>1265.461549693585</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>83.16071780147341</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.4887226196059591</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1410.453602338051</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>147.7440909453449</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.6312645605054781</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>K23_101_FIC_50X_CRR_DiadFit</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>103.2167358933521</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01704363704942</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1285.894375318644</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01412995094182382</v>
+      </c>
+      <c r="F16" t="n">
+        <v>394.1294130153449</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1285.894425321144</v>
+      </c>
+      <c r="H16" t="n">
+        <v>521.8314947328848</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.5740155380381436</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7.895013128236331</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2391091758913954</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.148031076076287</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1389.111161214496</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.009530480064194774</v>
+      </c>
+      <c r="P16" t="n">
+        <v>639.0114169103766</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1389.111161214496</v>
+      </c>
+      <c r="R16" t="n">
+        <v>738.5942206300805</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.4870363622852014</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.896674840656684</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3193221140538639</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9740727245704028</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y16" t="n">
+        <v>1265.850687411189</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>71.31023838417323</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.4445432335830704</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1410.448209919935</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>71.61983265061923</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.4968501921684888</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>K23_102_FIA_CRR_DiadFit</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>103.2847827294434</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.005939203348152521</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1285.692054499723</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.005365663122102626</v>
+      </c>
+      <c r="F17" t="n">
+        <v>475.4545724814695</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1285.692104502223</v>
+      </c>
+      <c r="H17" t="n">
+        <v>782.4900828447562</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.6705909617080145</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.430931019122319</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4113824243734568</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.341181923416029</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1388.976937234167</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.002546329843287003</v>
+      </c>
+      <c r="P17" t="n">
+        <v>872.4458054396232</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1388.976887231667</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1183.464440301343</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.5249013371644092</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>3.193477388676098</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.546856616016294</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.049802674328818</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="Y17" t="n">
+        <v>1265.5187044602</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>106.9676033202486</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.8376846338409757</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1410.391834937655</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>185.5498294488939</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.6307948377127879</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -637,37 +637,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.3212107518029</v>
+        <v>103.3215974555178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003303994062794734</v>
+        <v>0.003499286810108335</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.53024208956</v>
+        <v>1285.529855385846</v>
       </c>
       <c r="E2" t="n">
-        <v>0.003003164113538504</v>
+        <v>0.003216772622561443</v>
       </c>
       <c r="F2" t="n">
-        <v>1362.541566130723</v>
+        <v>1366.809244478769</v>
       </c>
       <c r="G2" t="n">
-        <v>1285.530292092061</v>
+        <v>1285.529905388346</v>
       </c>
       <c r="H2" t="n">
-        <v>2153.795452685364</v>
+        <v>2180.498742756034</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5860616358551511</v>
+        <v>0.5857522146917168</v>
       </c>
       <c r="J2" t="n">
-        <v>5.329909838446272</v>
+        <v>6.004058078522843</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6538623022564829</v>
+        <v>0.6776411608975116</v>
       </c>
       <c r="L2" t="n">
-        <v>1.172123271710302</v>
+        <v>1.171504429383434</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>1265.385375160708</v>
+        <v>1265.382428459782</v>
       </c>
       <c r="Z2" t="n">
-        <v>232.2824109271143</v>
+        <v>267.9377834610459</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8014427993589559</v>
+        <v>0.9083623842315833</v>
       </c>
       <c r="AB2" t="n">
         <v>1410.162753344647</v>
@@ -744,37 +744,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>103.3567422454043</v>
+        <v>103.3569733366944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002075493396151495</v>
+        <v>0.002186786045805703</v>
       </c>
       <c r="D3" t="n">
-        <v>1285.483705084368</v>
+        <v>1285.483473993078</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001819055458092816</v>
+        <v>0.001945076639178862</v>
       </c>
       <c r="F3" t="n">
-        <v>1291.09838345763</v>
+        <v>1293.306052392802</v>
       </c>
       <c r="G3" t="n">
-        <v>1285.483755086868</v>
+        <v>1285.483523995578</v>
       </c>
       <c r="H3" t="n">
-        <v>2046.897654584217</v>
+        <v>2058.897395237981</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5912944668340028</v>
+        <v>0.5908860361644908</v>
       </c>
       <c r="J3" t="n">
-        <v>3.329589685524318</v>
+        <v>3.925972699705117</v>
       </c>
       <c r="K3" t="n">
-        <v>0.639286275563802</v>
+        <v>0.6511892080616624</v>
       </c>
       <c r="L3" t="n">
-        <v>1.182588933668006</v>
+        <v>1.181772072328982</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>1265.306981279445</v>
+        <v>1265.30630909068</v>
       </c>
       <c r="Z3" t="n">
-        <v>214.7415399655829</v>
+        <v>230.3849896746154</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8052511989659479</v>
+        <v>0.8710012221181069</v>
       </c>
       <c r="AB3" t="n">
         <v>1410.206096198883</v>
@@ -851,37 +851,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.3478356356432</v>
+        <v>103.3480953665314</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001650225658877853</v>
+        <v>0.00176474038680615</v>
       </c>
       <c r="D4" t="n">
-        <v>1285.494697363545</v>
+        <v>1285.494437632656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00141746179363308</v>
+        <v>0.001549277845970626</v>
       </c>
       <c r="F4" t="n">
-        <v>1852.376086756238</v>
+        <v>1856.198326639334</v>
       </c>
       <c r="G4" t="n">
-        <v>1285.494747366045</v>
+        <v>1285.494487635156</v>
       </c>
       <c r="H4" t="n">
-        <v>2949.331251619172</v>
+        <v>2970.509853882965</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5935437284729497</v>
+        <v>0.5930636546058315</v>
       </c>
       <c r="J4" t="n">
-        <v>3.896763439144414</v>
+        <v>4.691197345167309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.64049374294935</v>
+        <v>0.6550316697659154</v>
       </c>
       <c r="L4" t="n">
-        <v>1.187087456945899</v>
+        <v>1.186127309211663</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>1265.247393899789</v>
+        <v>1265.246056570146</v>
       </c>
       <c r="Z4" t="n">
-        <v>327.2163797560422</v>
+        <v>354.1393799733564</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8353652900811237</v>
+        <v>0.9079270719560177</v>
       </c>
       <c r="AB4" t="n">
         <v>1410.207012238237</v>
@@ -958,37 +958,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>103.0028501958107</v>
+        <v>103.0030537737121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03245870122812999</v>
+        <v>0.03241960717311081</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.359590106879</v>
+        <v>1286.359386528977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02948314560682222</v>
+        <v>0.02944010052148074</v>
       </c>
       <c r="F5" t="n">
-        <v>46.32165882339616</v>
+        <v>46.4436303637359</v>
       </c>
       <c r="G5" t="n">
-        <v>1286.359590106879</v>
+        <v>1286.359386528977</v>
       </c>
       <c r="H5" t="n">
-        <v>45.98110698062013</v>
+        <v>46.28388218332019</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4665754090934283</v>
+        <v>0.4689848433978812</v>
       </c>
       <c r="J5" t="n">
-        <v>1.842056503304278</v>
+        <v>1.839396731452155</v>
       </c>
       <c r="K5" t="n">
-        <v>2.381594388367603e-08</v>
+        <v>2.031177993577771e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9331508181868566</v>
+        <v>0.9379696867957624</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -1053,37 +1053,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103.1543033150542</v>
+        <v>103.1550168005419</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003341076232148519</v>
+        <v>0.003336155775218801</v>
       </c>
       <c r="D6" t="n">
-        <v>1285.991130305773</v>
+        <v>1285.990416820285</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002902525852834291</v>
+        <v>0.002896860592757173</v>
       </c>
       <c r="F6" t="n">
-        <v>628.3651553848152</v>
+        <v>631.3070441520954</v>
       </c>
       <c r="G6" t="n">
-        <v>1285.991180308273</v>
+        <v>1285.990466822785</v>
       </c>
       <c r="H6" t="n">
-        <v>763.8179248555101</v>
+        <v>772.5818009097765</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4842074877430222</v>
+        <v>0.4822372590647193</v>
       </c>
       <c r="J6" t="n">
-        <v>2.727443129484842</v>
+        <v>2.542672903299207</v>
       </c>
       <c r="K6" t="n">
-        <v>0.471541894341323</v>
+        <v>0.4998668726168308</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9684149754860445</v>
+        <v>0.9644745181294385</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>1265.699254146812</v>
+        <v>1265.695404865116</v>
       </c>
       <c r="Z6" t="n">
-        <v>71.88537016669684</v>
+        <v>79.48702084238347</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.503122509548486</v>
+        <v>0.5391480921773364</v>
       </c>
       <c r="AB6" t="n">
         <v>1410.470004608635</v>
@@ -1160,37 +1160,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>103.1731074704721</v>
+        <v>103.1738792805686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004494793790383913</v>
+        <v>0.004489142141953977</v>
       </c>
       <c r="D7" t="n">
-        <v>1285.956015368444</v>
+        <v>1285.955243558347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003848198785732753</v>
+        <v>0.00384159600258908</v>
       </c>
       <c r="F7" t="n">
-        <v>411.936931133406</v>
+        <v>415.3522796918753</v>
       </c>
       <c r="G7" t="n">
-        <v>1285.956065370944</v>
+        <v>1285.955293560847</v>
       </c>
       <c r="H7" t="n">
-        <v>525.3794008340052</v>
+        <v>534.6267116054648</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5041899261513314</v>
+        <v>0.5001689220274297</v>
       </c>
       <c r="J7" t="n">
-        <v>2.308574010850984</v>
+        <v>2.188066749627262</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4914170227592288</v>
+        <v>0.5360314218086061</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008379852302663</v>
+        <v>1.000337844054859</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>1265.644705548277</v>
+        <v>1265.650764676925</v>
       </c>
       <c r="Z7" t="n">
-        <v>44.82773511003516</v>
+        <v>56.9338881409605</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.6636061039500496</v>
+        <v>0.6841347470119548</v>
       </c>
       <c r="AB7" t="n">
         <v>1410.493790332624</v>
@@ -1267,37 +1267,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.0883244022318</v>
+        <v>103.0883319577022</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003093452484139945</v>
+        <v>0.007131543751507582</v>
       </c>
       <c r="D8" t="n">
-        <v>1286.164366710376</v>
+        <v>1286.164409157406</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.006425688134980971</v>
       </c>
       <c r="F8" t="n">
-        <v>234.8698816294272</v>
+        <v>235.2924360424752</v>
       </c>
       <c r="G8" t="n">
-        <v>1286.164416712876</v>
+        <v>1286.164409157406</v>
       </c>
       <c r="H8" t="n">
-        <v>267.1353623113072</v>
+        <v>270.8185567004009</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4712035854971648</v>
+        <v>0.4709534536529494</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95960310356591</v>
+        <v>2.039371367791538</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3660855504263292</v>
+        <v>0.398927530251662</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9424071709943296</v>
+        <v>0.9419069073058988</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -1339,15 +1339,9 @@
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="Y8" t="n">
-        <v>1265.813479493506</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>14.73607568459997</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.5223047406092561</v>
-      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="n">
         <v>1410.54446649296</v>
       </c>
@@ -1374,37 +1368,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>103.3171062353756</v>
+        <v>103.3171074334812</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00540448998230455</v>
+        <v>0.006756076420931702</v>
       </c>
       <c r="D9" t="n">
-        <v>1285.613540001616</v>
+        <v>1285.61358880601</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004853556639848951</v>
+        <v>0.006324007328653321</v>
       </c>
       <c r="F9" t="n">
-        <v>323.7634730009353</v>
+        <v>323.8384992521369</v>
       </c>
       <c r="G9" t="n">
-        <v>1285.613590004116</v>
+        <v>1285.61358880601</v>
       </c>
       <c r="H9" t="n">
-        <v>491.8218404109873</v>
+        <v>490.5827186049489</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5834027308144338</v>
+        <v>0.5832211272049332</v>
       </c>
       <c r="J9" t="n">
-        <v>1.837419702626779</v>
+        <v>2.594740378412047</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5659442405693759</v>
+        <v>0.5619577483789917</v>
       </c>
       <c r="L9" t="n">
-        <v>1.166805461628868</v>
+        <v>1.166442254409866</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1446,15 +1440,9 @@
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="Y9" t="n">
-        <v>1265.322379856578</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>51.14490049915086</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.7681228916127877</v>
-      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
         <v>1410.345572927247</v>
       </c>
@@ -1481,37 +1469,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>103.3302683241598</v>
+        <v>103.3303943939397</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001442092341355852</v>
+        <v>0.001511149599471953</v>
       </c>
       <c r="D10" t="n">
-        <v>1285.56895700574</v>
+        <v>1285.56883093596</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001171681185334221</v>
+        <v>0.001255698845684445</v>
       </c>
       <c r="F10" t="n">
-        <v>1942.734595342808</v>
+        <v>1945.508074963094</v>
       </c>
       <c r="G10" t="n">
-        <v>1285.569007008241</v>
+        <v>1285.568880938461</v>
       </c>
       <c r="H10" t="n">
-        <v>3023.339563543307</v>
+        <v>3042.258120394317</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5934561476949454</v>
+        <v>0.5934214741934769</v>
       </c>
       <c r="J10" t="n">
-        <v>3.182407650229055</v>
+        <v>3.704510172281391</v>
       </c>
       <c r="K10" t="n">
-        <v>0.583976907260344</v>
+        <v>0.5962531282154446</v>
       </c>
       <c r="L10" t="n">
-        <v>1.186912295389891</v>
+        <v>1.186842948386954</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -1554,13 +1542,13 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>1265.322362572897</v>
+        <v>1265.321469083896</v>
       </c>
       <c r="Z10" t="n">
-        <v>334.9164798916603</v>
+        <v>359.0463679727656</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8448274173653528</v>
+        <v>0.9069231919924228</v>
       </c>
       <c r="AB10" t="n">
         <v>1410.259809810381</v>
@@ -1588,37 +1576,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.2957657988338</v>
+        <v>103.2957472105443</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001839161773169925</v>
+        <v>0.001835957871401626</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.608729802017</v>
+        <v>1285.608748390306</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001593419164450699</v>
+        <v>0.001589720073255292</v>
       </c>
       <c r="F11" t="n">
-        <v>1678.909126848991</v>
+        <v>1678.154312916877</v>
       </c>
       <c r="G11" t="n">
-        <v>1285.608779804517</v>
+        <v>1285.608798392806</v>
       </c>
       <c r="H11" t="n">
-        <v>2696.273675202637</v>
+        <v>2690.727819306308</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6018594317385892</v>
+        <v>0.6018353711801896</v>
       </c>
       <c r="J11" t="n">
-        <v>3.918012401764628</v>
+        <v>3.798007921122309</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6274169561876026</v>
+        <v>0.6235181888632202</v>
       </c>
       <c r="L11" t="n">
-        <v>1.203718863477178</v>
+        <v>1.203670742360379</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1661,13 +1649,13 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>1265.337623053284</v>
+        <v>1265.337197657449</v>
       </c>
       <c r="Z11" t="n">
-        <v>309.5185708263588</v>
+        <v>303.0847703199496</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7887050317500641</v>
+        <v>0.7738815825779851</v>
       </c>
       <c r="AB11" t="n">
         <v>1410.237160271136</v>
@@ -1695,37 +1683,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103.2900603752596</v>
+        <v>103.2900608882007</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003020019411163922</v>
+        <v>0.003012197362429106</v>
       </c>
       <c r="D12" t="n">
-        <v>1285.637988917088</v>
+        <v>1285.637988404147</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002678892535793019</v>
+        <v>0.002670071333269119</v>
       </c>
       <c r="F12" t="n">
-        <v>620.4285816231975</v>
+        <v>620.692594105217</v>
       </c>
       <c r="G12" t="n">
-        <v>1285.638038919588</v>
+        <v>1285.638038406647</v>
       </c>
       <c r="H12" t="n">
-        <v>962.6648494149666</v>
+        <v>964.5465483537987</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5920668337867092</v>
+        <v>0.5920754740289971</v>
       </c>
       <c r="J12" t="n">
-        <v>2.44159609227817</v>
+        <v>2.421211449489129</v>
       </c>
       <c r="K12" t="n">
-        <v>0.58239145934378</v>
+        <v>0.5862116996535665</v>
       </c>
       <c r="L12" t="n">
-        <v>1.184133667573418</v>
+        <v>1.184150948057994</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1768,13 +1756,13 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>1265.414506610958</v>
+        <v>1265.414010080515</v>
       </c>
       <c r="Z12" t="n">
-        <v>113.0109120228628</v>
+        <v>115.2448288101352</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.7797888589581795</v>
+        <v>0.7957621290036879</v>
       </c>
       <c r="AB12" t="n">
         <v>1410.261876951716</v>
@@ -1802,37 +1790,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.2834611467515</v>
+        <v>103.2834581875011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003507586940147758</v>
+        <v>0.003528501496918605</v>
       </c>
       <c r="D13" t="n">
-        <v>1285.637297956407</v>
+        <v>1285.637300915657</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003098791498945663</v>
+        <v>0.003122445423862462</v>
       </c>
       <c r="F13" t="n">
-        <v>469.1987631537802</v>
+        <v>468.9697838099689</v>
       </c>
       <c r="G13" t="n">
-        <v>1285.637347958907</v>
+        <v>1285.637350918157</v>
       </c>
       <c r="H13" t="n">
-        <v>726.0338392914415</v>
+        <v>724.4512500196562</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5991147943370086</v>
+        <v>0.5991280012292467</v>
       </c>
       <c r="J13" t="n">
-        <v>1.846145611920143</v>
+        <v>1.889209250070597</v>
       </c>
       <c r="K13" t="n">
-        <v>0.545290726400794</v>
+        <v>0.5408858100621294</v>
       </c>
       <c r="L13" t="n">
-        <v>1.198229588674017</v>
+        <v>1.198256002458493</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
@@ -1875,13 +1863,13 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>1265.351524980279</v>
+        <v>1265.351937330548</v>
       </c>
       <c r="Z13" t="n">
-        <v>67.74741925147424</v>
+        <v>65.80178925310864</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.6173847760756411</v>
+        <v>0.6204214835512503</v>
       </c>
       <c r="AB13" t="n">
         <v>1410.263575832891</v>
@@ -1909,37 +1897,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.2091649658012</v>
+        <v>103.2095119051621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.007184000179917393</v>
+        <v>0.007089808265529515</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.904020292297</v>
+        <v>1285.903623350436</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006217730905141008</v>
+        <v>0.006108657812127236</v>
       </c>
       <c r="F14" t="n">
-        <v>328.3841903017717</v>
+        <v>331.7713589142032</v>
       </c>
       <c r="G14" t="n">
-        <v>1285.904020292297</v>
+        <v>1285.903673352936</v>
       </c>
       <c r="H14" t="n">
-        <v>436.535733916361</v>
+        <v>447.4899518263346</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5482737566283247</v>
+        <v>0.5429700163104516</v>
       </c>
       <c r="J14" t="n">
-        <v>2.70450080091354</v>
+        <v>2.547700141169557</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3783101727368429</v>
+        <v>0.4435646080716731</v>
       </c>
       <c r="L14" t="n">
-        <v>1.096547513256649</v>
+        <v>1.085940032620903</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -1982,13 +1970,13 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>1265.683901337615</v>
+        <v>1265.685710086654</v>
       </c>
       <c r="Z14" t="n">
-        <v>48.06766255147441</v>
+        <v>52.25416031540784</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.6917640246153555</v>
+        <v>0.7184263494221589</v>
       </c>
       <c r="AB14" t="n">
         <v>1410.506254121333</v>
@@ -2016,37 +2004,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.2532250843449</v>
+        <v>103.2520857124941</v>
       </c>
       <c r="C15" t="n">
-        <v>0.008346917364622836</v>
+        <v>0.008550769370825509</v>
       </c>
       <c r="D15" t="n">
-        <v>1285.819253203019</v>
+        <v>1285.82039257487</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007132978381390435</v>
+        <v>0.007370482204753549</v>
       </c>
       <c r="F15" t="n">
-        <v>660.3008059095757</v>
+        <v>667.9908014468608</v>
       </c>
       <c r="G15" t="n">
-        <v>1285.819303205519</v>
+        <v>1285.82044257737</v>
       </c>
       <c r="H15" t="n">
-        <v>903.4373376775034</v>
+        <v>936.6403205264056</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5726754997941808</v>
+        <v>0.5681795407454743</v>
       </c>
       <c r="J15" t="n">
-        <v>6.205261428311556</v>
+        <v>6.244208513802181</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3380142384674037</v>
+        <v>0.4262206857897317</v>
       </c>
       <c r="L15" t="n">
-        <v>1.145350999588362</v>
+        <v>1.136359081490949</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2089,13 +2077,13 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>1265.461549693585</v>
+        <v>1265.462056221352</v>
       </c>
       <c r="Z15" t="n">
-        <v>83.16071780147341</v>
+        <v>109.2723011597471</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.4887226196059591</v>
+        <v>0.5458776516798269</v>
       </c>
       <c r="AB15" t="n">
         <v>1410.453602338051</v>
@@ -2123,37 +2111,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.2167358933521</v>
+        <v>103.2167621413046</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01704363704942</v>
+        <v>0.01726630379687906</v>
       </c>
       <c r="D16" t="n">
-        <v>1285.894375318644</v>
+        <v>1285.894349070691</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01412995094182382</v>
+        <v>0.01439774970445403</v>
       </c>
       <c r="F16" t="n">
-        <v>394.1294130153449</v>
+        <v>406.3179622280051</v>
       </c>
       <c r="G16" t="n">
-        <v>1285.894425321144</v>
+        <v>1285.894399073191</v>
       </c>
       <c r="H16" t="n">
-        <v>521.8314947328848</v>
+        <v>568.0998052337924</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5740155380381436</v>
+        <v>0.5601547531387823</v>
       </c>
       <c r="J16" t="n">
-        <v>7.895013128236331</v>
+        <v>8.591087799189003</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2391091758913954</v>
+        <v>0.4569736898901452</v>
       </c>
       <c r="L16" t="n">
-        <v>1.148031076076287</v>
+        <v>1.120309506277565</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -2196,13 +2184,13 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>1265.850687411189</v>
+        <v>1265.823228252162</v>
       </c>
       <c r="Z16" t="n">
-        <v>71.31023838417323</v>
+        <v>131.2439190594631</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.4445432335830704</v>
+        <v>1.045940250198919</v>
       </c>
       <c r="AB16" t="n">
         <v>1410.448209919935</v>
@@ -2230,37 +2218,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>103.2847827294434</v>
+        <v>103.2845203905702</v>
       </c>
       <c r="C17" t="n">
-        <v>0.005939203348152521</v>
+        <v>0.006010913181031239</v>
       </c>
       <c r="D17" t="n">
-        <v>1285.692054499723</v>
+        <v>1285.692316838596</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005365663122102626</v>
+        <v>0.005444931735024882</v>
       </c>
       <c r="F17" t="n">
-        <v>475.4545724814695</v>
+        <v>477.3951566135385</v>
       </c>
       <c r="G17" t="n">
-        <v>1285.692104502223</v>
+        <v>1285.692366841096</v>
       </c>
       <c r="H17" t="n">
-        <v>782.4900828447562</v>
+        <v>795.8622986585715</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6705909617080145</v>
+        <v>0.6701336724756033</v>
       </c>
       <c r="J17" t="n">
-        <v>3.430931019122319</v>
+        <v>3.378069679130222</v>
       </c>
       <c r="K17" t="n">
-        <v>0.4113824243734568</v>
+        <v>0.4477814916158721</v>
       </c>
       <c r="L17" t="n">
-        <v>1.341181923416029</v>
+        <v>1.340267344951207</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -2303,13 +2291,13 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>1265.5187044602</v>
+        <v>1265.513590940886</v>
       </c>
       <c r="Z17" t="n">
-        <v>106.9676033202486</v>
+        <v>126.2247705647952</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.8376846338409757</v>
+        <v>0.8501745208316925</v>
       </c>
       <c r="AB17" t="n">
         <v>1410.391834937655</v>

--- a/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
+++ b/docs/Examples/Example1b_CO2_Fluid_Inclusions/Weak_Diads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM17"/>
+  <dimension ref="A1:AU17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,46 @@
           <t>Diad1_Gauss_Sigma</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Diad1_Asym50</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Diad1_Asym70</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Diad1_Yuan2017_sym_factor</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Diad1_Remigi2021_BSF</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Diad2_Asym50</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Diad2_Asym70</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Diad2_Yuan2017_sym_factor</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Diad2_Remigi2021_BSF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -736,6 +776,30 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="n">
+        <v>1.164133738602162</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.152173913043523</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.1922834017836951</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.0008571089448770777</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>1.100917431193286</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1.100000000000032</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.1027222787810408</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.0004185099443979589</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -843,6 +907,30 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="n">
+        <v>1.181008902076529</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.146551724137428</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2139112653169737</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.0009137605674561974</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>1.081081081080656</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1.081775700934434</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.08279008964124143</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.0004555797481215617</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -950,6 +1038,30 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="n">
+        <v>1.198198198198423</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>1.185185185185261</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2350882955196955</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.0006390089314212232</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>1.06547619047562</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.067129629629676</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.06721912718399045</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.0003130828167376919</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1045,6 +1157,30 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="n">
+        <v>1.195035460993019</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>1.20111731843574</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.1829373502616893</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.02019587356651059</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>1.034482758620562</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1.03888888888852</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.02574252342936353</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.009673999294495873</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1152,6 +1288,30 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="n">
+        <v>1.252631578946804</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.266846361185536</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.2436567203689979</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.001527742367305308</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>1.095057034220433</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.122507122507193</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.08687053902164894</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.0008885840855582906</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1259,6 +1419,30 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="n">
+        <v>1.201954397394592</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.201511335012676</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.2020226264871046</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.002408408218673916</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>1.06716417910465</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>1.088642659279925</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0.06234023522498912</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.001366294128249545</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1360,6 +1544,30 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="n">
+        <v>1.003597122302353</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>1.002645502645645</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.003388154343009955</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.004003132965718732</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>1.251937984496013</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1.28398791540778</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.2162185216442824</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.002122158418979997</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1461,6 +1669,30 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>1.017595307917657</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>1.027310924369817</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.02052391063450729</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.003601925827545564</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>1.221476510067057</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>1.22137404580167</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.227293600785559</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.001836225772890855</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1568,6 +1800,30 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>1.094674556212968</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>1.095541401273929</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.1123638294330259</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.0006100426740246082</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.197411003235526</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>1.190123456789631</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.2029290416787086</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.0003006820035996373</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1675,6 +1931,30 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="n">
+        <v>1.025568181818422</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1.053388090348928</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.03077567239018532</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0007172586770451544</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1.203225806451472</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.193627450980329</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.2120469227446246</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0003537435869755437</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1782,6 +2062,30 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="n">
+        <v>1.026086956521594</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.008196721311367</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.03089089429699293</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.001907789716365235</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>1.223333333333295</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1.218592964823898</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.2310084308933085</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.0009513085296379747</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1889,6 +2193,30 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="n">
+        <v>1.022922636102848</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>1.010183299389007</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.02746718630240945</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.002555081465427714</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>1.217821782178126</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>1.212499999999719</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.2244890929404168</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.001258444643877306</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1996,6 +2324,30 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="n">
+        <v>1.025714285714142</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.033482142857151</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.02792417226723898</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.003273157864424728</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>1.038732394366109</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>1.035989717223308</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03785469975302655</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.001747704912994523</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2103,6 +2455,30 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="n">
+        <v>1.101744186046138</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.068131868131711</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.1156179298024332</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0.001701159774999307</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>1.03092783505186</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.047619047619528</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.03091937550983918</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.000919340054609549</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2210,6 +2586,30 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="n">
+        <v>1.016574585635515</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.008528784648363</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.01856866585007859</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.002757223678063495</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>1.03496503496491</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1.043701799485593</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.03405848687296949</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.00152434322579094</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2317,6 +2717,30 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="n">
+        <v>1.007462686567234</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.070610687022875</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.01000199511166949</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.002807459033431672</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1.195286195286329</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.20749999999967</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.2050119700710883</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.001203286975286477</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
